--- a/run1/P03_MF_2/T02_optuna/S03_calculate_performances.xlsx
+++ b/run1/P03_MF_2/T02_optuna/S03_calculate_performances.xlsx
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7864216363154578</v>
+        <v>0.7364023715686068</v>
       </c>
       <c r="F2" t="n">
-        <v>1.181183399339907</v>
+        <v>1.259439416420581</v>
       </c>
       <c r="G2" t="n">
-        <v>2.038764637248365</v>
+        <v>2.097542402004706</v>
       </c>
       <c r="H2" t="n">
-        <v>1.996305889800727</v>
+        <v>1.845902267789653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2135783636845419</v>
+        <v>0.263597628431393</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07600109810989497</v>
+        <v>0.01478412376937732</v>
       </c>
     </row>
     <row r="3">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9410157891313915</v>
+        <v>0.8836362513000214</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8067542600399029</v>
+        <v>0.760394834338524</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246367850513476</v>
+        <v>1.456445571939364</v>
       </c>
       <c r="H3" t="n">
-        <v>3.987580540609311</v>
+        <v>4.684938762313456</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05898421086860828</v>
+        <v>0.1163637486999783</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01618310303025605</v>
+        <v>0.07271727780681581</v>
       </c>
     </row>
     <row r="4">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8760221350811271</v>
+        <v>0.5788648751747889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8953737100754</v>
+        <v>0.5561222821353928</v>
       </c>
       <c r="G4" t="n">
-        <v>1.278862768076576</v>
+        <v>1.481077418666511</v>
       </c>
       <c r="H4" t="n">
-        <v>1.318603855509253</v>
+        <v>1.608749975072337</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1239778649188733</v>
+        <v>0.4211351248252114</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04968542419920641</v>
+        <v>0.3480337348962789</v>
       </c>
     </row>
     <row r="5">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.867819853509325</v>
+        <v>0.7329678326811386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9611037898184037</v>
+        <v>0.8586521776314995</v>
       </c>
       <c r="G5" t="n">
-        <v>1.521331751946139</v>
+        <v>1.678355130870193</v>
       </c>
       <c r="H5" t="n">
-        <v>2.434163428639764</v>
+        <v>2.713197001725149</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1321801464906748</v>
+        <v>0.267032167318861</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01416625898031424</v>
+        <v>0.1451783788241571</v>
       </c>
     </row>
     <row r="6">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.863252925926413</v>
+        <v>0.7744478700254079</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7208745839228831</v>
+        <v>0.8922247908039599</v>
       </c>
       <c r="G6" t="n">
-        <v>1.992262847038675</v>
+        <v>2.039780032931393</v>
       </c>
       <c r="H6" t="n">
-        <v>1.37616097348599</v>
+        <v>1.893564760851415</v>
       </c>
       <c r="I6" t="n">
-        <v>0.136747074073587</v>
+        <v>0.2255521299745921</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1737947111761092</v>
+        <v>-0.02259235853553188</v>
       </c>
     </row>
     <row r="7">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9397368071539194</v>
+        <v>0.8568124588035256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8694510247126376</v>
+        <v>0.9804278882553219</v>
       </c>
       <c r="G7" t="n">
-        <v>1.49177596357655</v>
+        <v>1.912404372039508</v>
       </c>
       <c r="H7" t="n">
-        <v>1.177744317474942</v>
+        <v>1.401687714614793</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06026319284608095</v>
+        <v>0.1431875411964748</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02807023872636394</v>
+        <v>-0.09598702663322034</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9180386582647397</v>
+        <v>0.5676799141976872</v>
       </c>
       <c r="F8" t="n">
-        <v>1.158515711623821</v>
+        <v>0.6036096520054347</v>
       </c>
       <c r="G8" t="n">
-        <v>1.75186442458674</v>
+        <v>2.101191804484216</v>
       </c>
       <c r="H8" t="n">
-        <v>1.574325301800132</v>
+        <v>1.713210536903208</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08196134173525993</v>
+        <v>0.4323200858023126</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0495081890129927</v>
+        <v>0.4531854282243117</v>
       </c>
     </row>
     <row r="9">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9070094637816908</v>
+        <v>0.7329800810088734</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9162804400864472</v>
+        <v>0.8254207770215722</v>
       </c>
       <c r="G9" t="n">
-        <v>1.745301078400654</v>
+        <v>2.017792069818372</v>
       </c>
       <c r="H9" t="n">
-        <v>1.376076864253688</v>
+        <v>1.669487670789805</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09299053621830899</v>
+        <v>0.2670199189911266</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05078558696315993</v>
+        <v>0.1115353476851862</v>
       </c>
     </row>
     <row r="10">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.8496336327012939</v>
+        <v>0.8761398448297318</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9102080610022195</v>
+        <v>1.038616088814709</v>
       </c>
       <c r="G10" t="n">
-        <v>1.61370959225612</v>
+        <v>1.304440872484888</v>
       </c>
       <c r="H10" t="n">
-        <v>1.576215364014526</v>
+        <v>1.602058663698788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1503663672987056</v>
+        <v>0.1238601551702675</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1911324943472824</v>
+        <v>0.07702113276682321</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9572989787012298</v>
+        <v>0.9691320089641476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9177593045645533</v>
+        <v>0.9500095827795116</v>
       </c>
       <c r="G11" t="n">
-        <v>1.488375730882625</v>
+        <v>1.927946417869453</v>
       </c>
       <c r="H11" t="n">
-        <v>1.213829762494385</v>
+        <v>2.012562397612955</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04270102129876985</v>
+        <v>0.03086799103585192</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00410397156549458</v>
+        <v>-0.03089204953768965</v>
       </c>
     </row>
     <row r="12">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9026399603816438</v>
+        <v>0.6180570937979045</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7839187892611169</v>
+        <v>0.5001888209742945</v>
       </c>
       <c r="G12" t="n">
-        <v>1.295392956949566</v>
+        <v>1.490735519702351</v>
       </c>
       <c r="H12" t="n">
-        <v>1.300109125220515</v>
+        <v>1.316703994581732</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09736003961835571</v>
+        <v>0.3819429062020953</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.06750850052425883</v>
+        <v>0.3188633496582645</v>
       </c>
     </row>
     <row r="13">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9031908572613893</v>
+        <v>0.8211096491972613</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8706287182759632</v>
+        <v>0.8296048308561715</v>
       </c>
       <c r="G13" t="n">
-        <v>1.465826093362771</v>
+        <v>1.574374270018897</v>
       </c>
       <c r="H13" t="n">
-        <v>1.363384750576476</v>
+        <v>1.643775018631158</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09680914273861081</v>
+        <v>0.1788903508027386</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04257598846283942</v>
+        <v>0.1216641442957996</v>
       </c>
     </row>
     <row r="14">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8326642134229351</v>
+        <v>0.8376244317477949</v>
       </c>
       <c r="F14" t="n">
-        <v>0.944011940011022</v>
+        <v>0.9610827382361459</v>
       </c>
       <c r="G14" t="n">
-        <v>1.695880697297493</v>
+        <v>1.70119184933914</v>
       </c>
       <c r="H14" t="n">
-        <v>3.327008123524543</v>
+        <v>3.31137323411164</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1673357865770648</v>
+        <v>0.1623755682522049</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1653154614252841</v>
+        <v>0.1502216572733225</v>
       </c>
     </row>
     <row r="15">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9598462721991489</v>
+        <v>0.9437827232196515</v>
       </c>
       <c r="F15" t="n">
-        <v>1.007412478863186</v>
+        <v>0.935198152307795</v>
       </c>
       <c r="G15" t="n">
-        <v>1.683425433416132</v>
+        <v>2.522692203470031</v>
       </c>
       <c r="H15" t="n">
-        <v>1.122404699748484</v>
+        <v>1.129035506745978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04015372780085058</v>
+        <v>0.05621727678034782</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01066392511215608</v>
+        <v>0.06178347479315527</v>
       </c>
     </row>
     <row r="16">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.8960073899152362</v>
+        <v>0.7182661931038308</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8468181716548177</v>
+        <v>0.6641843822378386</v>
       </c>
       <c r="G16" t="n">
-        <v>1.329810628584067</v>
+        <v>1.748090255787448</v>
       </c>
       <c r="H16" t="n">
-        <v>1.228248615526304</v>
+        <v>1.315322280990942</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1039926100847646</v>
+        <v>0.2817338068961699</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.002896273139179728</v>
+        <v>0.2133989752228682</v>
       </c>
     </row>
     <row r="17">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.896172625179107</v>
+        <v>0.8332244493570918</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9327475301763419</v>
+        <v>0.8534884242605932</v>
       </c>
       <c r="G17" t="n">
-        <v>1.569705586432564</v>
+        <v>1.990658102865539</v>
       </c>
       <c r="H17" t="n">
-        <v>1.89255381293311</v>
+        <v>1.918577007282854</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1038273748208925</v>
+        <v>0.1667755506429077</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05058508772464913</v>
+        <v>0.1418013690964484</v>
       </c>
     </row>
     <row r="18">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.8157523579547895</v>
+        <v>0.6380116970407368</v>
       </c>
       <c r="F18" t="n">
-        <v>1.004860944896077</v>
+        <v>1.03655795417102</v>
       </c>
       <c r="G18" t="n">
-        <v>52.23867473245601</v>
+        <v>52.99198904962145</v>
       </c>
       <c r="H18" t="n">
-        <v>1.251826371633638</v>
+        <v>1.610855965378461</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1842476420452098</v>
+        <v>0.3619883029592627</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1383445189657766</v>
+        <v>0.1111647366159197</v>
       </c>
     </row>
     <row r="19">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9501711629147304</v>
+        <v>0.8486772875242562</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8366182019591882</v>
+        <v>0.9705348151132803</v>
       </c>
       <c r="G19" t="n">
-        <v>1.521621901694457</v>
+        <v>1.229799286915684</v>
       </c>
       <c r="H19" t="n">
-        <v>1.33724349979615</v>
+        <v>2.436939308004104</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04982883708526942</v>
+        <v>0.1513227124757436</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.09273638016250008</v>
+        <v>-0.267649566080445</v>
       </c>
     </row>
     <row r="20">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.8971630893038698</v>
+        <v>0.538774288188638</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9302213149735143</v>
+        <v>0.63982564441555</v>
       </c>
       <c r="G20" t="n">
-        <v>1.286062590500146</v>
+        <v>1.62232271568944</v>
       </c>
       <c r="H20" t="n">
-        <v>1.211841286314334</v>
+        <v>1.395929695283217</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1028369106961315</v>
+        <v>0.4612257118113627</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02129399722267356</v>
+        <v>0.3268255749028935</v>
       </c>
     </row>
     <row r="21">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.8876955367244627</v>
+        <v>0.6751544242512101</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9239001539429266</v>
+        <v>0.8823061378999503</v>
       </c>
       <c r="G21" t="n">
-        <v>18.34878640821687</v>
+        <v>18.61470368407555</v>
       </c>
       <c r="H21" t="n">
-        <v>1.266970385914708</v>
+        <v>1.814574989555261</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1123044632755374</v>
+        <v>0.32484557574879</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02230071200864995</v>
+        <v>0.05678024847945562</v>
       </c>
     </row>
     <row r="22">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.8213407568694051</v>
+        <v>0.6975974912732387</v>
       </c>
       <c r="F22" t="n">
-        <v>1.127798013488232</v>
+        <v>1.030591714852005</v>
       </c>
       <c r="G22" t="n">
-        <v>1.61051379271394</v>
+        <v>1.63432048183301</v>
       </c>
       <c r="H22" t="n">
-        <v>1.755608592606881</v>
+        <v>1.936455745169496</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1786592431305946</v>
+        <v>0.302402508726761</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1177626382157702</v>
+        <v>0.1938037620978607</v>
       </c>
     </row>
     <row r="23">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8827681943914891</v>
+        <v>0.8681742251783813</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8668328336309579</v>
+        <v>0.8032336239640916</v>
       </c>
       <c r="G23" t="n">
-        <v>1.364528592938653</v>
+        <v>1.232673828268466</v>
       </c>
       <c r="H23" t="n">
-        <v>3.718650814699234</v>
+        <v>3.789601710032759</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1172318056085108</v>
+        <v>0.1318257748216185</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0570812337974127</v>
+        <v>0.02047643178106195</v>
       </c>
     </row>
     <row r="24">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.8585511589224292</v>
+        <v>0.6136417152110782</v>
       </c>
       <c r="F24" t="n">
-        <v>0.898327547882786</v>
+        <v>0.5794909273487153</v>
       </c>
       <c r="G24" t="n">
-        <v>1.290628214783829</v>
+        <v>1.397135571807481</v>
       </c>
       <c r="H24" t="n">
-        <v>1.314578962064075</v>
+        <v>1.377475118190471</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1414488410775713</v>
+        <v>0.3863582847889221</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0531483363407752</v>
+        <v>0.3206376588358799</v>
       </c>
     </row>
     <row r="25">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.8542200367277745</v>
+        <v>0.726471143887566</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9643194650006587</v>
+        <v>0.8044387553882707</v>
       </c>
       <c r="G25" t="n">
-        <v>1.421890200145474</v>
+        <v>1.421376627302986</v>
       </c>
       <c r="H25" t="n">
-        <v>2.262946123123397</v>
+        <v>2.367844191130909</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1457799632722254</v>
+        <v>0.2735288561124337</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002511022692526824</v>
+        <v>0.178305950904934</v>
       </c>
     </row>
     <row r="26">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.8276578909464397</v>
+        <v>0.7108237693581654</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7883609506001513</v>
+        <v>0.7081846095897866</v>
       </c>
       <c r="G26" t="n">
-        <v>1.740872997817355</v>
+        <v>1.668566179798322</v>
       </c>
       <c r="H26" t="n">
-        <v>1.550642489291585</v>
+        <v>1.976527940435881</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1723421090535603</v>
+        <v>0.2891762306418346</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09644756325913928</v>
+        <v>0.1883388831345499</v>
       </c>
     </row>
     <row r="27">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.8766178430241592</v>
+        <v>0.8669708128010093</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9149902807238522</v>
+        <v>0.8791883521220361</v>
       </c>
       <c r="G27" t="n">
-        <v>1.684583841794828</v>
+        <v>1.515319938002312</v>
       </c>
       <c r="H27" t="n">
-        <v>1.366041478379423</v>
+        <v>1.181451000931795</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1233821569758411</v>
+        <v>0.133029187198991</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.02283654839046956</v>
+        <v>0.01718521123722172</v>
       </c>
     </row>
     <row r="28">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.8858262646976338</v>
+        <v>0.6301858968812603</v>
       </c>
       <c r="F28" t="n">
-        <v>1.153925445794053</v>
+        <v>0.7794402745408857</v>
       </c>
       <c r="G28" t="n">
-        <v>1.623743345267254</v>
+        <v>1.896366884168932</v>
       </c>
       <c r="H28" t="n">
-        <v>1.493723783431883</v>
+        <v>1.447441440212926</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1141737353023657</v>
+        <v>0.3698141031187394</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.04534983230729384</v>
+        <v>0.2938991307846717</v>
       </c>
     </row>
     <row r="29">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.8633673328894109</v>
+        <v>0.7359934930134781</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9524255590393521</v>
+        <v>0.7889377454175692</v>
       </c>
       <c r="G29" t="n">
-        <v>1.683066728293145</v>
+        <v>1.693417667323188</v>
       </c>
       <c r="H29" t="n">
-        <v>1.470135917034297</v>
+        <v>1.535140127193533</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1366326671105888</v>
+        <v>0.2640065069865219</v>
       </c>
       <c r="J29" t="n">
-        <v>0.009420394187124925</v>
+        <v>0.166474408385481</v>
       </c>
     </row>
     <row r="30">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.7899467549516094</v>
+        <v>0.6925648819271113</v>
       </c>
       <c r="F30" t="n">
-        <v>1.069830264393912</v>
+        <v>0.9233610409561647</v>
       </c>
       <c r="G30" t="n">
-        <v>1.485899614518647</v>
+        <v>1.190734220846765</v>
       </c>
       <c r="H30" t="n">
-        <v>1.933601693870467</v>
+        <v>1.658959046455359</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2100532450483901</v>
+        <v>0.3074351180728883</v>
       </c>
       <c r="J30" t="n">
-        <v>0.04928227456119982</v>
+        <v>0.1794439381335159</v>
       </c>
     </row>
     <row r="31">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.9011808640456125</v>
+        <v>0.9151451397494986</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8762446417827265</v>
+        <v>0.8300677332990531</v>
       </c>
       <c r="G31" t="n">
-        <v>2.765596987396538</v>
+        <v>1.510990432948933</v>
       </c>
       <c r="H31" t="n">
-        <v>2.734597542036497</v>
+        <v>1.710212735746003</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09881913595438707</v>
+        <v>0.08485486025050104</v>
       </c>
       <c r="J31" t="n">
-        <v>0.04915313378111008</v>
+        <v>0.09926147867671808</v>
       </c>
     </row>
     <row r="32">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.8574030160046708</v>
+        <v>0.649363936645157</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8183924824250535</v>
+        <v>0.4587664261696643</v>
       </c>
       <c r="G32" t="n">
-        <v>1.354808615131376</v>
+        <v>1.450857299914056</v>
       </c>
       <c r="H32" t="n">
-        <v>1.237829598305161</v>
+        <v>1.157111353011886</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1425969839953288</v>
+        <v>0.3506360633548428</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1144533639477443</v>
+        <v>0.3752706703804697</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.8495102116672971</v>
+        <v>0.7523579861072558</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9214891295338975</v>
+        <v>0.7373984001416275</v>
       </c>
       <c r="G33" t="n">
-        <v>1.868768405682188</v>
+        <v>1.384193984569918</v>
       </c>
       <c r="H33" t="n">
-        <v>1.968676278070709</v>
+        <v>1.508761045071082</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1504897883327028</v>
+        <v>0.2476420138927442</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.005339318535145095</v>
+        <v>0.2179920290635678</v>
       </c>
     </row>
     <row r="34">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.8252635246969133</v>
+        <v>0.7218799538117795</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9615731482280082</v>
+        <v>0.8129487502802302</v>
       </c>
       <c r="G34" t="n">
-        <v>1.37483616246066</v>
+        <v>1.318108976667711</v>
       </c>
       <c r="H34" t="n">
-        <v>3.20812498595333</v>
+        <v>1.614932021174958</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1747364753030864</v>
+        <v>0.2781200461882204</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1497880423788274</v>
+        <v>0.2812000317447009</v>
       </c>
     </row>
     <row r="35">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8933847366628997</v>
+        <v>0.8910773399907943</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9597083218932706</v>
+        <v>0.9316511405805462</v>
       </c>
       <c r="G35" t="n">
-        <v>3.246128056567981</v>
+        <v>2.062097517573323</v>
       </c>
       <c r="H35" t="n">
-        <v>1.165015465551775</v>
+        <v>1.086214861843967</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1066152633370997</v>
+        <v>0.1089226600092051</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03719419808856772</v>
+        <v>0.06534193457988091</v>
       </c>
     </row>
     <row r="36">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.8707995073422683</v>
+        <v>0.5807986021489978</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8773212554560861</v>
+        <v>0.6368277921687631</v>
       </c>
       <c r="G36" t="n">
-        <v>1.299820351778639</v>
+        <v>1.430609122388059</v>
       </c>
       <c r="H36" t="n">
-        <v>1.224791037621105</v>
+        <v>1.283395097937172</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1292004926577324</v>
+        <v>0.4192013978510026</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.03902141793119984</v>
+        <v>0.2457976921427687</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.8631492562340276</v>
+        <v>0.7312519653171905</v>
       </c>
       <c r="F37" t="n">
-        <v>0.932867575192455</v>
+        <v>0.7938092276765133</v>
       </c>
       <c r="G37" t="n">
-        <v>1.97359485693576</v>
+        <v>1.603605205543031</v>
       </c>
       <c r="H37" t="n">
-        <v>1.86597716304207</v>
+        <v>1.328180660318699</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1368507437659721</v>
+        <v>0.2687480346828091</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04932027417873138</v>
+        <v>0.1974465528224499</v>
       </c>
     </row>
     <row r="38">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.7760182720877288</v>
+        <v>0.5948544164008586</v>
       </c>
       <c r="F38" t="n">
-        <v>1.107479250430153</v>
+        <v>0.9869921812719917</v>
       </c>
       <c r="G38" t="n">
-        <v>26.50197600806088</v>
+        <v>21.7556965439081</v>
       </c>
       <c r="H38" t="n">
-        <v>1.351088520147097</v>
+        <v>1.363483177245133</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2239817279122706</v>
+        <v>0.4051455835991409</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05035062700789428</v>
+        <v>0.1536667565292942</v>
       </c>
     </row>
     <row r="39">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.8427151370108341</v>
+        <v>0.7816620634418189</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9010620483818261</v>
+        <v>0.8935549447987672</v>
       </c>
       <c r="G39" t="n">
-        <v>1.828836422320913</v>
+        <v>1.62658165262982</v>
       </c>
       <c r="H39" t="n">
-        <v>2.403186324136844</v>
+        <v>2.610116338330584</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1572848629891657</v>
+        <v>0.218337936558181</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.1769087485124974</v>
+        <v>-0.1671034571912635</v>
       </c>
     </row>
     <row r="40">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.8320841108251072</v>
+        <v>0.5362174871770343</v>
       </c>
       <c r="F40" t="n">
-        <v>1.064653994438868</v>
+        <v>0.7121457923003581</v>
       </c>
       <c r="G40" t="n">
-        <v>1.343840842771774</v>
+        <v>1.417898890346242</v>
       </c>
       <c r="H40" t="n">
-        <v>1.486009863962006</v>
+        <v>1.38983088967064</v>
       </c>
       <c r="I40" t="n">
-        <v>0.167915889174894</v>
+        <v>0.4637825128229665</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.12014553791196</v>
+        <v>0.2507359801825005</v>
       </c>
     </row>
     <row r="41">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.8169391733078902</v>
+        <v>0.6375779890065707</v>
       </c>
       <c r="F41" t="n">
-        <v>1.024398431083616</v>
+        <v>0.8642309727903723</v>
       </c>
       <c r="G41" t="n">
-        <v>9.891551091051179</v>
+        <v>8.266725695628047</v>
       </c>
       <c r="H41" t="n">
-        <v>1.746761569415316</v>
+        <v>1.787810135082119</v>
       </c>
       <c r="I41" t="n">
-        <v>0.18306082669211</v>
+        <v>0.3624220109934294</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.08223455313885482</v>
+        <v>0.07909975984017692</v>
       </c>
     </row>
     <row r="42">
@@ -1943,22 +1943,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.06068728436321144</v>
+        <v>0.5031048976700885</v>
       </c>
       <c r="F42" t="n">
-        <v>1.512360180610026</v>
+        <v>0.9260377228164594</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8650502786238441</v>
+        <v>1.624892874501806</v>
       </c>
       <c r="H42" t="n">
-        <v>3.91639048145262</v>
+        <v>1.546517440705423</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9393127156367885</v>
+        <v>0.4968951023299113</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.183067038469148</v>
+        <v>0.2755927322806957</v>
       </c>
     </row>
     <row r="43">
@@ -1979,22 +1979,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1697484344811842</v>
+        <v>0.6798531304365982</v>
       </c>
       <c r="F43" t="n">
-        <v>1.646463308073715</v>
+        <v>0.8431903463303785</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8355368922546926</v>
+        <v>1.292169411301019</v>
       </c>
       <c r="H43" t="n">
-        <v>5.801934399099512</v>
+        <v>5.824467330548265</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8302515655188158</v>
+        <v>0.3201468695634017</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.007821344065174</v>
+        <v>-0.02824980439590941</v>
       </c>
     </row>
     <row r="44">
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.05145766889149882</v>
+        <v>0.370166471226084</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8307039260883525</v>
+        <v>0.4443102600802135</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4771920151752899</v>
+        <v>1.17203150074563</v>
       </c>
       <c r="H44" t="n">
-        <v>1.997894765350393</v>
+        <v>1.189662141194084</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9485423311085012</v>
+        <v>0.6298335287739162</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02612976768485997</v>
+        <v>0.4791158165800021</v>
       </c>
     </row>
     <row r="45">
@@ -2051,22 +2051,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.09396446257863145</v>
+        <v>0.517708166444257</v>
       </c>
       <c r="F45" t="n">
-        <v>1.329842471590698</v>
+        <v>0.7378461097423509</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7259263953512756</v>
+        <v>1.363031262182818</v>
       </c>
       <c r="H45" t="n">
-        <v>3.905406548634175</v>
+        <v>2.853548970815921</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9060355374213686</v>
+        <v>0.4822918335557428</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.3882528716164879</v>
+        <v>0.2421529148215954</v>
       </c>
     </row>
     <row r="46">
@@ -2087,22 +2087,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.06640714623921365</v>
+        <v>0.6284520101395943</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8171175796688041</v>
+        <v>0.6517364062537683</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8423480090280719</v>
+        <v>1.531537973845925</v>
       </c>
       <c r="H46" t="n">
-        <v>2.431624723238949</v>
+        <v>1.565275739331363</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9335928537607864</v>
+        <v>0.3715479898604057</v>
       </c>
       <c r="J46" t="n">
-        <v>0.06348915474378325</v>
+        <v>0.2530350247116732</v>
       </c>
     </row>
     <row r="47">
@@ -2123,22 +2123,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.09942266510573042</v>
+        <v>0.7779564773561982</v>
       </c>
       <c r="F47" t="n">
-        <v>1.872232026991959</v>
+        <v>0.9216285956527437</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9856240586073866</v>
+        <v>1.551382834158204</v>
       </c>
       <c r="H47" t="n">
-        <v>2.866481913756945</v>
+        <v>1.363744594873488</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9005773348942696</v>
+        <v>0.2220435226438021</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.092904574636131</v>
+        <v>-0.03025729511536879</v>
       </c>
     </row>
     <row r="48">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.04659361415476776</v>
+        <v>0.4903452372817923</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8126802281888436</v>
+        <v>0.6112972817936798</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6849068744195321</v>
+        <v>1.476570359633527</v>
       </c>
       <c r="H48" t="n">
-        <v>1.759160687119788</v>
+        <v>1.195598984075233</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9534063858452322</v>
+        <v>0.5096547627182075</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2637868041188149</v>
+        <v>0.4462211459656321</v>
       </c>
     </row>
     <row r="49">
@@ -2195,22 +2195,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.07080780849990394</v>
+        <v>0.6322512415925283</v>
       </c>
       <c r="F49" t="n">
-        <v>1.167343278283202</v>
+        <v>0.7282207612333975</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8376263140183305</v>
+        <v>1.519830389212552</v>
       </c>
       <c r="H49" t="n">
-        <v>2.352422441371894</v>
+        <v>1.374873106093361</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9291921915000959</v>
+        <v>0.3677487584074717</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.2552095385911777</v>
+        <v>0.2229996251873116</v>
       </c>
     </row>
     <row r="50">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.04457170839041737</v>
+        <v>0.5175764732316854</v>
       </c>
       <c r="F50" t="n">
-        <v>1.180986684871383</v>
+        <v>0.920444806962</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6150547858843685</v>
+        <v>1.078997141597517</v>
       </c>
       <c r="H50" t="n">
-        <v>2.864525073428715</v>
+        <v>2.038188756268426</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9554282916095826</v>
+        <v>0.4824235267683142</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0494982355453546</v>
+        <v>0.1820354850751704</v>
       </c>
     </row>
     <row r="51">
@@ -2267,22 +2267,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1522345503994743</v>
+        <v>0.7406782194182903</v>
       </c>
       <c r="F51" t="n">
-        <v>1.790305419850637</v>
+        <v>0.9495366388205312</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9549343757937635</v>
+        <v>1.558125752160087</v>
       </c>
       <c r="H51" t="n">
-        <v>7.568335658523612</v>
+        <v>3.536301268754307</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8477654496005256</v>
+        <v>0.2593217805817095</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.942729480863149</v>
+        <v>-0.03037883980167488</v>
       </c>
     </row>
     <row r="52">
@@ -2303,22 +2303,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.050745718964863</v>
+        <v>0.4231220519477589</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6854203392221812</v>
+        <v>0.4596583236264206</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4591311392295608</v>
+        <v>1.128725671540408</v>
       </c>
       <c r="H52" t="n">
-        <v>1.615612530331126</v>
+        <v>1.109024430994216</v>
       </c>
       <c r="I52" t="n">
-        <v>0.949254281035137</v>
+        <v>0.576877948052241</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06662265457171124</v>
+        <v>0.3740561209529956</v>
       </c>
     </row>
     <row r="53">
@@ -2339,22 +2339,22 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.08251732591825157</v>
+        <v>0.5604589148659115</v>
       </c>
       <c r="F53" t="n">
-        <v>1.218904147981401</v>
+        <v>0.7765465898029839</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6763734336358979</v>
+        <v>1.255282855099337</v>
       </c>
       <c r="H53" t="n">
-        <v>4.016157754094485</v>
+        <v>2.22783815200565</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9174826740817484</v>
+        <v>0.4395410851340884</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.3085350206122642</v>
+        <v>0.175237588742164</v>
       </c>
     </row>
     <row r="54">
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.05898285399715055</v>
+        <v>0.4940639456093034</v>
       </c>
       <c r="F54" t="n">
-        <v>1.051929058775636</v>
+        <v>0.7617619291562425</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7531416698666864</v>
+        <v>1.11643839423677</v>
       </c>
       <c r="H54" t="n">
-        <v>2.907258860304851</v>
+        <v>3.667426035515802</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9410171460028495</v>
+        <v>0.5059360543906966</v>
       </c>
       <c r="J54" t="n">
-        <v>0.06989638179022872</v>
+        <v>0.3264588323595357</v>
       </c>
     </row>
     <row r="55">
@@ -2411,22 +2411,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1239078253708915</v>
+        <v>0.6660599773718441</v>
       </c>
       <c r="F55" t="n">
-        <v>1.916971729896338</v>
+        <v>0.9390356140849302</v>
       </c>
       <c r="G55" t="n">
-        <v>2.783179740060078</v>
+        <v>3.293460326359235</v>
       </c>
       <c r="H55" t="n">
-        <v>2.269284834471832</v>
+        <v>1.131482869425627</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8760921746291084</v>
+        <v>0.3339400226281555</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.923158798918539</v>
+        <v>0.05793362752252806</v>
       </c>
     </row>
     <row r="56">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.05364563251723087</v>
+        <v>0.3562824659208217</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7120316389830641</v>
+        <v>0.4708455297285922</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5726723721104614</v>
+        <v>1.116928867799808</v>
       </c>
       <c r="H56" t="n">
-        <v>1.432195789376631</v>
+        <v>1.157228183664139</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9463543674827691</v>
+        <v>0.6437175340791785</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1567329315833604</v>
+        <v>0.44237235005683</v>
       </c>
     </row>
     <row r="57">
@@ -2483,22 +2483,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.07884543729509096</v>
+        <v>0.5054687963006566</v>
       </c>
       <c r="F57" t="n">
-        <v>1.226977475885012</v>
+        <v>0.7238810243232549</v>
       </c>
       <c r="G57" t="n">
-        <v>1.369664594012409</v>
+        <v>1.842275862798606</v>
       </c>
       <c r="H57" t="n">
-        <v>2.202913161384438</v>
+        <v>1.985379029535189</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9211545627049089</v>
+        <v>0.4945312036993431</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.2321764951816497</v>
+        <v>0.2755882699796313</v>
       </c>
     </row>
     <row r="58">
@@ -2519,22 +2519,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.06296707413255789</v>
+        <v>0.4383741362759137</v>
       </c>
       <c r="F58" t="n">
-        <v>1.334961850187145</v>
+        <v>0.9428264786222236</v>
       </c>
       <c r="G58" t="n">
-        <v>19.58239983482532</v>
+        <v>38.90274069471948</v>
       </c>
       <c r="H58" t="n">
-        <v>2.447486659482446</v>
+        <v>1.434888761834166</v>
       </c>
       <c r="I58" t="n">
-        <v>0.937032925867442</v>
+        <v>0.5616258637240861</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.1447128092975121</v>
+        <v>0.1915382848787577</v>
       </c>
     </row>
     <row r="59">
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1410600560716317</v>
+        <v>0.6454059023226613</v>
       </c>
       <c r="F59" t="n">
-        <v>2.180266187239912</v>
+        <v>0.8932509224778027</v>
       </c>
       <c r="G59" t="n">
-        <v>1.247376849936007</v>
+        <v>1.239789356991688</v>
       </c>
       <c r="H59" t="n">
-        <v>5.593680999845217</v>
+        <v>2.743880926503017</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8589399439283683</v>
+        <v>0.3545940976773386</v>
       </c>
       <c r="J59" t="n">
-        <v>-1.847722145724314</v>
+        <v>-0.1667063629734695</v>
       </c>
     </row>
     <row r="60">
@@ -2591,22 +2591,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.05637533723680021</v>
+        <v>0.358503427293793</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7689192767068906</v>
+        <v>0.5011932011312754</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5837251730595935</v>
+        <v>1.132840667517194</v>
       </c>
       <c r="H60" t="n">
-        <v>1.745302780229931</v>
+        <v>1.109123594533681</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9436246627631999</v>
+        <v>0.6414965727062074</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1910033669937345</v>
+        <v>0.4726837725575774</v>
       </c>
     </row>
     <row r="61">
@@ -2627,22 +2627,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.08680082248032994</v>
+        <v>0.4807611552974559</v>
       </c>
       <c r="F61" t="n">
-        <v>1.428049104711316</v>
+        <v>0.7790902007437671</v>
       </c>
       <c r="G61" t="n">
-        <v>7.137833952606975</v>
+        <v>13.75845690640945</v>
       </c>
       <c r="H61" t="n">
-        <v>3.262156813185866</v>
+        <v>1.762631094290287</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9131991775196701</v>
+        <v>0.5192388447025441</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.6004771960093641</v>
+        <v>0.165838564820955</v>
       </c>
     </row>
     <row r="62">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.7970407344896463</v>
+        <v>5.748429196768464e-13</v>
       </c>
       <c r="F62" t="n">
-        <v>1.094583257734469</v>
+        <v>1.011970243339206</v>
       </c>
       <c r="G62" t="n">
-        <v>1.917914319505878</v>
+        <v>5.567877664139185e-07</v>
       </c>
       <c r="H62" t="n">
-        <v>1.731031857372743</v>
+        <v>1.395925202977921</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2029592655103534</v>
+        <v>0.9999999999994251</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1437453923419933</v>
+        <v>0.2083706949205029</v>
       </c>
     </row>
     <row r="63">
@@ -2699,22 +2699,22 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.8968023347387855</v>
+        <v>6.651163746265828e-13</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8463349691850863</v>
+        <v>0.7989371102902013</v>
       </c>
       <c r="G63" t="n">
-        <v>1.141370286836509</v>
+        <v>6.460705078785939e-07</v>
       </c>
       <c r="H63" t="n">
-        <v>4.8969425447813</v>
+        <v>4.151920021051991</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1031976652612143</v>
+        <v>0.9999999999993349</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.03208459430939015</v>
+        <v>0.02571592410208878</v>
       </c>
     </row>
     <row r="64">
@@ -2735,22 +2735,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.7578907211432709</v>
+        <v>6.618313482269603e-13</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7985475517827406</v>
+        <v>0.7006075851140593</v>
       </c>
       <c r="G64" t="n">
-        <v>1.264111677687465</v>
+        <v>6.289162430066907e-07</v>
       </c>
       <c r="H64" t="n">
-        <v>1.469756786926794</v>
+        <v>1.073198153770508</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2421092788567294</v>
+        <v>0.9999999999993382</v>
       </c>
       <c r="J64" t="n">
-        <v>0.06382807960073278</v>
+        <v>0.1786473492552032</v>
       </c>
     </row>
     <row r="65">
@@ -2771,22 +2771,22 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.8172445967905672</v>
+        <v>6.339302141767964e-13</v>
       </c>
       <c r="F65" t="n">
-        <v>0.913155259567432</v>
+        <v>0.8371716462478224</v>
       </c>
       <c r="G65" t="n">
-        <v>1.441132094676617</v>
+        <v>6.10591505766401e-07</v>
       </c>
       <c r="H65" t="n">
-        <v>2.699243729693613</v>
+        <v>2.207014459266807</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1827554032094327</v>
+        <v>0.9999999999993662</v>
       </c>
       <c r="J65" t="n">
-        <v>0.05849629254444481</v>
+        <v>0.1375779894259311</v>
       </c>
     </row>
     <row r="66">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.8165373578727489</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7193599981614159</v>
+        <v>0.6380833546690534</v>
       </c>
       <c r="G66" t="n">
-        <v>1.733675468223663</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.48205136188445</v>
+        <v>1.402682885576141</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1834626421272511</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0.175530600877882</v>
+        <v>0.2686829941080856</v>
       </c>
     </row>
     <row r="67">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.8702299521337842</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9465763688328009</v>
+        <v>0.9493061638747285</v>
       </c>
       <c r="G67" t="n">
-        <v>1.704734039153638</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.324201368142544</v>
+        <v>1.36949411352151</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1297700478662163</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.05814556316268749</v>
+        <v>-0.06119710829635783</v>
       </c>
     </row>
     <row r="68">
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.8173770925735997</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9905463930085301</v>
+        <v>0.9598373524111423</v>
       </c>
       <c r="G68" t="n">
-        <v>1.854022807992513</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.318747290900888</v>
+        <v>1.267192364810039</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1826229074264</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1026564934517727</v>
+        <v>0.1304760467477025</v>
       </c>
     </row>
     <row r="69">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.8347148008600443</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8854942533342491</v>
+        <v>0.8490756236516415</v>
       </c>
       <c r="G69" t="n">
-        <v>1.764144105123271</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.37500000697596</v>
+        <v>1.346456454635897</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1652851991399555</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0.07334717705565545</v>
+        <v>0.1126539775198097</v>
       </c>
     </row>
     <row r="70">
@@ -2951,22 +2951,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.7690843993924568</v>
+        <v>2.3200531152982e-13</v>
       </c>
       <c r="F70" t="n">
-        <v>1.019378793722572</v>
+        <v>0.9719552631259275</v>
       </c>
       <c r="G70" t="n">
-        <v>1.453505388136453</v>
+        <v>4.79126598999711e-07</v>
       </c>
       <c r="H70" t="n">
-        <v>1.953843460686555</v>
+        <v>2.085881279118962</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2309156006075427</v>
+        <v>0.999999999999768</v>
       </c>
       <c r="J70" t="n">
-        <v>0.09411658990829119</v>
+        <v>0.1362600893415041</v>
       </c>
     </row>
     <row r="71">
@@ -2987,22 +2987,22 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.8879216898750439</v>
+        <v>2.993782186277165e-13</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8526441367291652</v>
+        <v>0.8865351549969148</v>
       </c>
       <c r="G71" t="n">
-        <v>1.633654307745292</v>
+        <v>6.269060049677548e-07</v>
       </c>
       <c r="H71" t="n">
-        <v>2.597705297789356</v>
+        <v>3.487087327758979</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1120783101249557</v>
+        <v>0.9999999999997006</v>
       </c>
       <c r="J71" t="n">
-        <v>0.07476295231957975</v>
+        <v>0.03798650088554345</v>
       </c>
     </row>
     <row r="72">
@@ -3023,22 +3023,22 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.7752577637583253</v>
+        <v>2.875029254202529e-13</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7401054262943025</v>
+        <v>0.6492029705743722</v>
       </c>
       <c r="G72" t="n">
-        <v>1.383452569443921</v>
+        <v>4.280261223110664e-07</v>
       </c>
       <c r="H72" t="n">
-        <v>1.282550724203974</v>
+        <v>1.059546816239802</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2247422362416743</v>
+        <v>0.9999999999997125</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.007845257284849749</v>
+        <v>0.1159419838540188</v>
       </c>
     </row>
     <row r="73">
@@ -3059,22 +3059,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.8107546176752751</v>
+        <v>2.729621518592632e-13</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8707094522486796</v>
+        <v>0.835897796232405</v>
       </c>
       <c r="G73" t="n">
-        <v>1.490204088441889</v>
+        <v>5.113529087595107e-07</v>
       </c>
       <c r="H73" t="n">
-        <v>1.944699827559962</v>
+        <v>2.210838474372581</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1892453823247248</v>
+        <v>0.999999999999727</v>
       </c>
       <c r="J73" t="n">
-        <v>0.05367809498100747</v>
+        <v>0.0967295246936886</v>
       </c>
     </row>
     <row r="74">
@@ -3095,22 +3095,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.7956938775541089</v>
+        <v>3.016550847757136e-13</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9516116553353138</v>
+        <v>0.855385462956371</v>
       </c>
       <c r="G74" t="n">
-        <v>1.546595865986884</v>
+        <v>3.912307959905364e-07</v>
       </c>
       <c r="H74" t="n">
-        <v>2.661823372966448</v>
+        <v>2.063436596309029</v>
       </c>
       <c r="I74" t="n">
-        <v>0.204306122445891</v>
+        <v>0.9999999999996984</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1585958802315529</v>
+        <v>0.2436779767394445</v>
       </c>
     </row>
     <row r="75">
@@ -3131,22 +3131,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.9080274590662664</v>
+        <v>4.65411615862589e-13</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9246764915280078</v>
+        <v>0.9451863684495553</v>
       </c>
       <c r="G75" t="n">
-        <v>2.503355386339959</v>
+        <v>6.964205880516056e-07</v>
       </c>
       <c r="H75" t="n">
-        <v>1.119149952650577</v>
+        <v>1.123836074634708</v>
       </c>
       <c r="I75" t="n">
-        <v>0.09197254093373308</v>
+        <v>0.9999999999995346</v>
       </c>
       <c r="J75" t="n">
-        <v>0.07233909446782738</v>
+        <v>0.05176302146097955</v>
       </c>
     </row>
     <row r="76">
@@ -3167,22 +3167,22 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.7957965066974728</v>
+        <v>3.323411999160707e-13</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7364194674742568</v>
+        <v>0.7203227228370893</v>
       </c>
       <c r="G76" t="n">
-        <v>1.374685082006896</v>
+        <v>5.182848116223352e-07</v>
       </c>
       <c r="H76" t="n">
-        <v>1.221521143971781</v>
+        <v>1.105173382447605</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2042034933025278</v>
+        <v>0.9999999999996677</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1278501523487355</v>
+        <v>0.1469137078399241</v>
       </c>
     </row>
     <row r="77">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.8331726144392827</v>
+        <v>3.664693001847912e-13</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8709025381125263</v>
+        <v>0.8402981847476716</v>
       </c>
       <c r="G77" t="n">
-        <v>1.808212111444581</v>
+        <v>5.353120652214925e-07</v>
       </c>
       <c r="H77" t="n">
-        <v>1.667498156529603</v>
+        <v>1.430815351130447</v>
       </c>
       <c r="I77" t="n">
-        <v>0.166827385560717</v>
+        <v>0.9999999999996336</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1195950423493717</v>
+        <v>0.1474515686801162</v>
       </c>
     </row>
     <row r="78">
@@ -3239,22 +3239,22 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.7652732934267726</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1.06220804784787</v>
+        <v>0.9917503989446458</v>
       </c>
       <c r="G78" t="n">
-        <v>32.15909660040081</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1.420398464022451</v>
+        <v>1.35681959067523</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2347267065732267</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.08917010749040921</v>
+        <v>0.1495866453871298</v>
       </c>
     </row>
     <row r="79">
@@ -3275,22 +3275,22 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.8743008090555145</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8214923170013798</v>
+        <v>0.8412294198747784</v>
       </c>
       <c r="G79" t="n">
-        <v>1.841765472642302</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.823187856044875</v>
+        <v>2.012794239773223</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1256991909444852</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.07297993123891278</v>
+        <v>-0.09875925363264737</v>
       </c>
     </row>
     <row r="80">
@@ -3311,22 +3311,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.7860963629804321</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9064051103002891</v>
+        <v>0.82114495394145</v>
       </c>
       <c r="G80" t="n">
-        <v>1.372829942620163</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.448432574355493</v>
+        <v>1.256686045867722</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2139036370195692</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0.04635154224111104</v>
+        <v>0.1360556002786385</v>
       </c>
     </row>
     <row r="81">
@@ -3347,22 +3347,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.8085568218209064</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.93003515838318</v>
+        <v>0.8847082575869579</v>
       </c>
       <c r="G81" t="n">
-        <v>11.79123067188776</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.56400629814094</v>
+        <v>1.542099958772059</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1914431781790937</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0208472394975352</v>
+        <v>0.06229433067770684</v>
       </c>
     </row>
     <row r="82">
@@ -3383,22 +3383,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.6038512158651613</v>
+        <v>0.539971739058793</v>
       </c>
       <c r="F82" t="n">
-        <v>1.018394284486371</v>
+        <v>0.9631615474334203</v>
       </c>
       <c r="G82" t="n">
-        <v>1.931370996958546</v>
+        <v>1.851649409844236</v>
       </c>
       <c r="H82" t="n">
-        <v>1.588481179156966</v>
+        <v>1.476380033672005</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3961487841348383</v>
+        <v>0.4600282609412067</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2033453898163211</v>
+        <v>0.246552048844743</v>
       </c>
     </row>
     <row r="83">
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.7790473069421693</v>
+        <v>0.7377635289919418</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8105942438747062</v>
+        <v>0.8268715081802868</v>
       </c>
       <c r="G83" t="n">
-        <v>1.261156111991969</v>
+        <v>1.258634844510974</v>
       </c>
       <c r="H83" t="n">
-        <v>4.635004425836712</v>
+        <v>4.242366526463164</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2209526930578306</v>
+        <v>0.2622364710080581</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01150033757379187</v>
+        <v>-0.008349384272710259</v>
       </c>
     </row>
     <row r="84">
@@ -3455,22 +3455,22 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.4491877765420539</v>
+        <v>0.384792057874187</v>
       </c>
       <c r="F84" t="n">
-        <v>0.49021689912688</v>
+        <v>0.4503396095485495</v>
       </c>
       <c r="G84" t="n">
-        <v>1.190350862144704</v>
+        <v>1.242977881213709</v>
       </c>
       <c r="H84" t="n">
-        <v>1.243101542300137</v>
+        <v>1.233878019637688</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5508122234579462</v>
+        <v>0.6152079421258132</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4252974730894366</v>
+        <v>0.4720473487624887</v>
       </c>
     </row>
     <row r="85">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.6106954331164615</v>
+        <v>0.554175775308307</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7730684758293194</v>
+        <v>0.746790888387419</v>
       </c>
       <c r="G85" t="n">
-        <v>1.460959323698406</v>
+        <v>1.451087378522973</v>
       </c>
       <c r="H85" t="n">
-        <v>2.488862382431271</v>
+        <v>2.317541526590952</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3893045668835383</v>
+        <v>0.4458242246916928</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2133810668265162</v>
+        <v>0.2367500044448402</v>
       </c>
     </row>
     <row r="86">
@@ -3527,22 +3527,22 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.6335205854686713</v>
+        <v>0.6769706371451291</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6824554434040007</v>
+        <v>0.7052085319305045</v>
       </c>
       <c r="G86" t="n">
-        <v>1.844657495852211</v>
+        <v>1.435898068479174</v>
       </c>
       <c r="H86" t="n">
-        <v>1.689326397578898</v>
+        <v>1.407115149454614</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3664794145313287</v>
+        <v>0.3230293628548709</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2178274705446439</v>
+        <v>0.1917498108560806</v>
       </c>
     </row>
     <row r="87">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.7772310998614628</v>
+        <v>0.815525441499685</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9638059533130708</v>
+        <v>0.8988249678132676</v>
       </c>
       <c r="G87" t="n">
-        <v>1.693421018560272</v>
+        <v>1.394259553973921</v>
       </c>
       <c r="H87" t="n">
-        <v>1.491910137592922</v>
+        <v>1.238062758543786</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2227689001385376</v>
+        <v>0.1844745585003154</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.07740593028490372</v>
+        <v>-0.004765894297801054</v>
       </c>
     </row>
     <row r="88">
@@ -3599,22 +3599,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.485317455394247</v>
+        <v>0.5267115527454731</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6149482512384021</v>
+        <v>0.6582437577694424</v>
       </c>
       <c r="G88" t="n">
-        <v>1.590570561219058</v>
+        <v>1.411358917996335</v>
       </c>
       <c r="H88" t="n">
-        <v>1.278041761187366</v>
+        <v>1.095179052250473</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5146825446057528</v>
+        <v>0.4732884472545266</v>
       </c>
       <c r="J88" t="n">
-        <v>0.442913704994718</v>
+        <v>0.403691976540036</v>
       </c>
     </row>
     <row r="89">
@@ -3635,22 +3635,22 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.6320230469081271</v>
+        <v>0.6730692104634292</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7537365493184911</v>
+        <v>0.7540924191710715</v>
       </c>
       <c r="G89" t="n">
-        <v>1.70954969187718</v>
+        <v>1.413838846816477</v>
       </c>
       <c r="H89" t="n">
-        <v>1.486426098786395</v>
+        <v>1.246785653416291</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3679769530918728</v>
+        <v>0.3269307895365709</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1944450817514858</v>
+        <v>0.196891964366105</v>
       </c>
     </row>
     <row r="90">
@@ -3671,22 +3671,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.5621561779865332</v>
+        <v>0.5660360570795766</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9235896051233093</v>
+        <v>0.8942965580623938</v>
       </c>
       <c r="G90" t="n">
-        <v>1.554026743392682</v>
+        <v>1.183881717917355</v>
       </c>
       <c r="H90" t="n">
-        <v>2.040769882086819</v>
+        <v>1.847711577452997</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4378438220134665</v>
+        <v>0.4339639429204231</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1792408217959651</v>
+        <v>0.2052724456897823</v>
       </c>
     </row>
     <row r="91">
@@ -3707,22 +3707,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.802198654948992</v>
+        <v>0.8176778369559516</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9094844029939069</v>
+        <v>0.8790925597201588</v>
       </c>
       <c r="G91" t="n">
-        <v>2.241198434067357</v>
+        <v>1.469240047783367</v>
       </c>
       <c r="H91" t="n">
-        <v>2.475021919450378</v>
+        <v>2.510801810700685</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1978013450510077</v>
+        <v>0.182322163044048</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01308338650458185</v>
+        <v>0.04606274815484634</v>
       </c>
     </row>
     <row r="92">
@@ -3743,22 +3743,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.444102960026165</v>
+        <v>0.4499161024774714</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4791040131283297</v>
+        <v>0.4078784904253531</v>
       </c>
       <c r="G92" t="n">
-        <v>1.240261373732974</v>
+        <v>1.119427953903161</v>
       </c>
       <c r="H92" t="n">
-        <v>1.213661142006093</v>
+        <v>0.9814174042308218</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5558970399738349</v>
+        <v>0.5500838975225284</v>
       </c>
       <c r="J92" t="n">
-        <v>0.3475757774196951</v>
+        <v>0.4445677770774363</v>
       </c>
     </row>
     <row r="93">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.6028192643205634</v>
+        <v>0.6112099988376665</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7707260070818484</v>
+        <v>0.7270892027359687</v>
       </c>
       <c r="G93" t="n">
-        <v>1.678495517064337</v>
+        <v>1.257516573201294</v>
       </c>
       <c r="H93" t="n">
-        <v>1.909817647847763</v>
+        <v>1.779976930794835</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3971807356794366</v>
+        <v>0.3887900011623335</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1799666619067476</v>
+        <v>0.2319676569740217</v>
       </c>
     </row>
     <row r="94">
@@ -3815,22 +3815,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.6230655474858712</v>
+        <v>0.6615166907184112</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8039898626709749</v>
+        <v>0.8209717204216379</v>
       </c>
       <c r="G94" t="n">
-        <v>1.217626650125756</v>
+        <v>1.25167410758707</v>
       </c>
       <c r="H94" t="n">
-        <v>3.965952949876063</v>
+        <v>3.145280122592208</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3769344525141287</v>
+        <v>0.3384833092815887</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2891213774960976</v>
+        <v>0.2741062134923582</v>
       </c>
     </row>
     <row r="95">
@@ -3851,22 +3851,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.808936246297947</v>
+        <v>0.8307187141194509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9199577711305738</v>
+        <v>0.8900726798089178</v>
       </c>
       <c r="G95" t="n">
-        <v>3.065614594304008</v>
+        <v>2.819958867002474</v>
       </c>
       <c r="H95" t="n">
-        <v>1.189012235249757</v>
+        <v>1.067692968852411</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1910637537020524</v>
+        <v>0.1692812858805486</v>
       </c>
       <c r="J95" t="n">
-        <v>0.07707304464060971</v>
+        <v>0.1070545907611853</v>
       </c>
     </row>
     <row r="96">
@@ -3887,22 +3887,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.4681091009423277</v>
+        <v>0.4713674301935331</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5000318871970747</v>
+        <v>0.49199841583009</v>
       </c>
       <c r="G96" t="n">
-        <v>1.20267583690908</v>
+        <v>1.217220741182553</v>
       </c>
       <c r="H96" t="n">
-        <v>1.115574774778184</v>
+        <v>1.157545212368471</v>
       </c>
       <c r="I96" t="n">
-        <v>0.5318908990576727</v>
+        <v>0.5286325698064673</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4078066190517324</v>
+        <v>0.417320749432963</v>
       </c>
     </row>
     <row r="97">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.6333702982420489</v>
+        <v>0.6545342783437986</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7413265069995409</v>
+        <v>0.7343476053535483</v>
       </c>
       <c r="G97" t="n">
-        <v>1.828639027112948</v>
+        <v>1.762951238590698</v>
       </c>
       <c r="H97" t="n">
-        <v>2.090179986634669</v>
+        <v>1.790172767937697</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3666297017579507</v>
+        <v>0.3454657216562009</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2580003470628132</v>
+        <v>0.2661605178955024</v>
       </c>
     </row>
     <row r="98">
@@ -3959,22 +3959,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.5493055861646705</v>
+        <v>0.4793226587363786</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9635854204477936</v>
+        <v>0.9804395732320624</v>
       </c>
       <c r="G98" t="n">
-        <v>43.35349059652039</v>
+        <v>40.65644383620567</v>
       </c>
       <c r="H98" t="n">
-        <v>1.560473921828621</v>
+        <v>1.492224205345957</v>
       </c>
       <c r="I98" t="n">
-        <v>0.450694413835329</v>
+        <v>0.520677341263621</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1737377562630069</v>
+        <v>0.1592855345914249</v>
       </c>
     </row>
     <row r="99">
@@ -3995,22 +3995,22 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.7682728429822991</v>
+        <v>0.703450711339033</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9176321404869797</v>
+        <v>0.8984866286437366</v>
       </c>
       <c r="G99" t="n">
-        <v>1.527702666419622</v>
+        <v>1.391672464846641</v>
       </c>
       <c r="H99" t="n">
-        <v>2.833770518616327</v>
+        <v>2.908829270694178</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2317271570177007</v>
+        <v>0.2965492886609667</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.198551527050596</v>
+        <v>-0.1735449024529585</v>
       </c>
     </row>
     <row r="100">
@@ -4031,22 +4031,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.4558365070243206</v>
+        <v>0.4001064232245307</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5200981336853868</v>
+        <v>0.5181100166250866</v>
       </c>
       <c r="G100" t="n">
-        <v>1.248484553120884</v>
+        <v>1.196698265992483</v>
       </c>
       <c r="H100" t="n">
-        <v>1.054283626308657</v>
+        <v>1.107401165462902</v>
       </c>
       <c r="I100" t="n">
-        <v>0.54416349297568</v>
+        <v>0.5998935767754699</v>
       </c>
       <c r="J100" t="n">
-        <v>0.452793483359747</v>
+        <v>0.4548852244000985</v>
       </c>
     </row>
     <row r="101">
@@ -4067,22 +4067,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.5911383120570968</v>
+        <v>0.5276265977666473</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8004385648733868</v>
+        <v>0.7990120728336286</v>
       </c>
       <c r="G101" t="n">
-        <v>15.37655927202029</v>
+        <v>14.41493818901493</v>
       </c>
       <c r="H101" t="n">
-        <v>1.816176022251201</v>
+        <v>1.836151547167678</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4088616879429033</v>
+        <v>0.4723734022333527</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1426599041907189</v>
+        <v>0.1468752855128546</v>
       </c>
     </row>
     <row r="102">
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.9670180705321682</v>
+        <v>0.6766167558340408</v>
       </c>
       <c r="F102" t="n">
-        <v>1.271417712519309</v>
+        <v>1.004676336810779</v>
       </c>
       <c r="G102" t="n">
-        <v>1.038116280499109</v>
+        <v>1.876477617648002</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9883681770658743</v>
+        <v>1.77146676104978</v>
       </c>
       <c r="I102" t="n">
-        <v>0.03298192946783141</v>
+        <v>0.323383244165959</v>
       </c>
       <c r="J102" t="n">
-        <v>0.005413917205414176</v>
+        <v>0.2140764656132862</v>
       </c>
     </row>
     <row r="103">
@@ -4139,22 +4139,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.9804749792282027</v>
+        <v>0.8323324571550763</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8346805233693571</v>
+        <v>0.902146773032242</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9765386952121383</v>
+        <v>1.451214794342851</v>
       </c>
       <c r="H103" t="n">
-        <v>1.544474123355974</v>
+        <v>6.342125197079113</v>
       </c>
       <c r="I103" t="n">
-        <v>0.01952502077179707</v>
+        <v>0.1676675428449236</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.01787228544873964</v>
+        <v>-0.1001457108041168</v>
       </c>
     </row>
     <row r="104">
@@ -4175,22 +4175,22 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.9711156787284811</v>
+        <v>0.6204110870650099</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8310838634522022</v>
+        <v>0.6358589339652676</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9676049321537357</v>
+        <v>1.346955563508118</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9626287320707057</v>
+        <v>1.228972237538909</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0288843212715193</v>
+        <v>0.3795889129349904</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02568435063893393</v>
+        <v>0.2545550005327043</v>
       </c>
     </row>
     <row r="105">
@@ -4211,22 +4211,22 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9728695761629508</v>
+        <v>0.7097867666847089</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9790606997802896</v>
+        <v>0.8475606812694297</v>
       </c>
       <c r="G105" t="n">
-        <v>0.9940866359549944</v>
+        <v>1.55821599183299</v>
       </c>
       <c r="H105" t="n">
-        <v>1.165157010830852</v>
+        <v>3.114188065222601</v>
       </c>
       <c r="I105" t="n">
-        <v>0.02713042383704904</v>
+        <v>0.2902132333152911</v>
       </c>
       <c r="J105" t="n">
-        <v>0.004408660798535746</v>
+        <v>0.1228285851139575</v>
       </c>
     </row>
     <row r="106">
@@ -4247,22 +4247,22 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.9666449301573341</v>
+        <v>0.7164188116502627</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9494356721319225</v>
+        <v>0.7277092762007435</v>
       </c>
       <c r="G106" t="n">
-        <v>1.031506276860499</v>
+        <v>1.362688033417913</v>
       </c>
       <c r="H106" t="n">
-        <v>1.017210112790273</v>
+        <v>1.629062896137257</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0333550698426659</v>
+        <v>0.2835811883497373</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.08816261692113647</v>
+        <v>0.165961366745067</v>
       </c>
     </row>
     <row r="107">
@@ -4283,22 +4283,22 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.9802165916119918</v>
+        <v>0.8610215488305279</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8905767609487608</v>
+        <v>0.8608390092135344</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9893857448181447</v>
+        <v>1.375131202284592</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9692288185639232</v>
+        <v>1.472761538445036</v>
       </c>
       <c r="I107" t="n">
-        <v>0.01978340838800863</v>
+        <v>0.1389784511694724</v>
       </c>
       <c r="J107" t="n">
-        <v>0.004454495926484725</v>
+        <v>0.03769731826301137</v>
       </c>
     </row>
     <row r="108">
@@ -4319,22 +4319,22 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.9880136358255215</v>
+        <v>0.6775823377366521</v>
       </c>
       <c r="F108" t="n">
-        <v>1.228020123034091</v>
+        <v>0.9218987619883114</v>
       </c>
       <c r="G108" t="n">
-        <v>1.239765124947321</v>
+        <v>1.706995310304853</v>
       </c>
       <c r="H108" t="n">
-        <v>1.227314342608705</v>
+        <v>1.561241802790689</v>
       </c>
       <c r="I108" t="n">
-        <v>0.01198636417447807</v>
+        <v>0.3224176622633476</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.1124727636110905</v>
+        <v>0.1648449041821538</v>
       </c>
     </row>
     <row r="109">
@@ -4355,22 +4355,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.9782917191982826</v>
+        <v>0.7516742327391475</v>
       </c>
       <c r="F109" t="n">
-        <v>1.022677518704925</v>
+        <v>0.8368156824675297</v>
       </c>
       <c r="G109" t="n">
-        <v>1.086885715541989</v>
+        <v>1.481604848669119</v>
       </c>
       <c r="H109" t="n">
-        <v>1.071251091320967</v>
+        <v>1.554355412457661</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02170828080171712</v>
+        <v>0.2483257672608523</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.06539362820191456</v>
+        <v>0.1228345297300773</v>
       </c>
     </row>
     <row r="110">
@@ -4391,22 +4391,22 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.9558903001943031</v>
+        <v>0.6837410190773644</v>
       </c>
       <c r="F110" t="n">
-        <v>1.089726998620665</v>
+        <v>0.9095065757899374</v>
       </c>
       <c r="G110" t="n">
-        <v>1.016223264915435</v>
+        <v>1.210527294268252</v>
       </c>
       <c r="H110" t="n">
-        <v>1.024127710607145</v>
+        <v>1.917369843085888</v>
       </c>
       <c r="I110" t="n">
-        <v>0.04410969980569635</v>
+        <v>0.3162589809226352</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03160079878201572</v>
+        <v>0.1917558777452344</v>
       </c>
     </row>
     <row r="111">
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.985808078093075</v>
+        <v>0.8799113640940721</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9072550301061935</v>
+        <v>0.8636185621186895</v>
       </c>
       <c r="G111" t="n">
-        <v>1.010321396036564</v>
+        <v>1.609108404328345</v>
       </c>
       <c r="H111" t="n">
-        <v>1.037598722996367</v>
+        <v>3.275092550774636</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01419192190692453</v>
+        <v>0.1200886359059276</v>
       </c>
       <c r="J111" t="n">
-        <v>0.01550256503399672</v>
+        <v>0.06285417993730058</v>
       </c>
     </row>
     <row r="112">
@@ -4463,22 +4463,22 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.9689005650204158</v>
+        <v>0.6864838651305813</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7166741624113431</v>
+        <v>0.5172382034673794</v>
       </c>
       <c r="G112" t="n">
-        <v>0.9789451591254984</v>
+        <v>1.297895242760109</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9518771954311908</v>
+        <v>1.114843094230584</v>
       </c>
       <c r="I112" t="n">
-        <v>0.03109943497958378</v>
+        <v>0.3135161348694183</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02406247820476959</v>
+        <v>0.2956461988648611</v>
       </c>
     </row>
     <row r="113">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.9701996477692649</v>
+        <v>0.7500454161006725</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9045520637127334</v>
+        <v>0.7634544471253353</v>
       </c>
       <c r="G113" t="n">
-        <v>1.001829940025833</v>
+        <v>1.372510313785569</v>
       </c>
       <c r="H113" t="n">
-        <v>1.004534543011568</v>
+        <v>2.102435162697036</v>
       </c>
       <c r="I113" t="n">
-        <v>0.02980035223073511</v>
+        <v>0.2499545838993275</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02372194734026116</v>
+        <v>0.1834187521824655</v>
       </c>
     </row>
     <row r="114">
@@ -4535,22 +4535,22 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.9615792242073363</v>
+        <v>0.7062450925819024</v>
       </c>
       <c r="F114" t="n">
-        <v>1.116434850651439</v>
+        <v>0.8460405220537073</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9874540741505079</v>
+        <v>1.40594626446278</v>
       </c>
       <c r="H114" t="n">
-        <v>1.248312907030245</v>
+        <v>3.284413010841317</v>
       </c>
       <c r="I114" t="n">
-        <v>0.03842077579266345</v>
+        <v>0.2937549074180975</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01286109987777484</v>
+        <v>0.251940666388536</v>
       </c>
     </row>
     <row r="115">
@@ -4571,22 +4571,22 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.9860987911413077</v>
+        <v>0.8626201624876002</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9875276339616627</v>
+        <v>0.9743940870517894</v>
       </c>
       <c r="G115" t="n">
-        <v>1.135768758642899</v>
+        <v>4.244866418177884</v>
       </c>
       <c r="H115" t="n">
-        <v>1.007251868882427</v>
+        <v>1.247502768840794</v>
       </c>
       <c r="I115" t="n">
-        <v>0.01390120885869162</v>
+        <v>0.1373798375123992</v>
       </c>
       <c r="J115" t="n">
-        <v>0.009285098569879469</v>
+        <v>0.02246103429538859</v>
       </c>
     </row>
     <row r="116">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.9722249127733812</v>
+        <v>0.6304344797329949</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8273326703289878</v>
+        <v>0.6755902560192198</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9674212185336333</v>
+        <v>1.36548430195339</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9924332278603964</v>
+        <v>1.073387364473921</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0277750872266197</v>
+        <v>0.3695655202670056</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02018062496485507</v>
+        <v>0.1998908707795144</v>
       </c>
     </row>
     <row r="117">
@@ -4643,22 +4643,22 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.9733009760406751</v>
+        <v>0.7330999116008324</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9770983849806965</v>
+        <v>0.8320082883749054</v>
       </c>
       <c r="G117" t="n">
-        <v>1.03021468377568</v>
+        <v>2.338765661531352</v>
       </c>
       <c r="H117" t="n">
-        <v>1.082666001257689</v>
+        <v>1.868434381385344</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0266990239593244</v>
+        <v>0.2669000883991671</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01410894113750305</v>
+        <v>0.1580975238211463</v>
       </c>
     </row>
     <row r="118">
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.9522230879001043</v>
+        <v>0.6457482574408797</v>
       </c>
       <c r="F118" t="n">
-        <v>1.137132617930509</v>
+        <v>0.9852534707021643</v>
       </c>
       <c r="G118" t="n">
-        <v>4.383876551423938</v>
+        <v>14.77639095028295</v>
       </c>
       <c r="H118" t="n">
-        <v>0.9940240594733519</v>
+        <v>1.329535378875548</v>
       </c>
       <c r="I118" t="n">
-        <v>0.04777691209989476</v>
+        <v>0.3542517425591197</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02492324148994518</v>
+        <v>0.155157678731051</v>
       </c>
     </row>
     <row r="119">
@@ -4715,22 +4715,22 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.975465905610692</v>
+        <v>0.8106557261906443</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7860142206337304</v>
+        <v>0.8615106111959137</v>
       </c>
       <c r="G119" t="n">
-        <v>0.9881677514406342</v>
+        <v>1.475754184082385</v>
       </c>
       <c r="H119" t="n">
-        <v>1.059936178164365</v>
+        <v>2.291161493011</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02453409438930787</v>
+        <v>0.1893442738093555</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.02664074508559411</v>
+        <v>-0.125249229033304</v>
       </c>
     </row>
     <row r="120">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.9644486906834244</v>
+        <v>0.6111110638194632</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9387157408338587</v>
+        <v>0.79148404472238</v>
       </c>
       <c r="G120" t="n">
-        <v>0.957247788772762</v>
+        <v>1.300395131523399</v>
       </c>
       <c r="H120" t="n">
-        <v>1.000245198922806</v>
+        <v>1.386728629081642</v>
       </c>
       <c r="I120" t="n">
-        <v>0.03555130931657702</v>
+        <v>0.3888889361805377</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01235682770629609</v>
+        <v>0.1672624856007231</v>
       </c>
     </row>
     <row r="121">
@@ -4787,22 +4787,22 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9640458947314076</v>
+        <v>0.6891716824836626</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9539541931326991</v>
+        <v>0.8794160422068195</v>
       </c>
       <c r="G121" t="n">
-        <v>2.109764030545779</v>
+        <v>5.850846755296245</v>
       </c>
       <c r="H121" t="n">
-        <v>1.018068478853508</v>
+        <v>1.669141833656064</v>
       </c>
       <c r="I121" t="n">
-        <v>0.03595410526859274</v>
+        <v>0.3108283175163375</v>
       </c>
       <c r="J121" t="n">
-        <v>0.003546441370215388</v>
+        <v>0.06572364509948954</v>
       </c>
     </row>
     <row r="122">
@@ -4823,22 +4823,22 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.1655519462508646</v>
+        <v>0.4463123653952904</v>
       </c>
       <c r="F122" t="n">
-        <v>1.034971985119592</v>
+        <v>0.975308323463948</v>
       </c>
       <c r="G122" t="n">
-        <v>1.3334107223279</v>
+        <v>1.56451837329511</v>
       </c>
       <c r="H122" t="n">
-        <v>1.913673510747097</v>
+        <v>1.538072649968696</v>
       </c>
       <c r="I122" t="n">
-        <v>0.8344480537491353</v>
+        <v>0.5536876346047095</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1903772282340308</v>
+        <v>0.2370500462598905</v>
       </c>
     </row>
     <row r="123">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.1996400262826947</v>
+        <v>0.6347726353995043</v>
       </c>
       <c r="F123" t="n">
-        <v>1.132010052226247</v>
+        <v>0.8500955783356923</v>
       </c>
       <c r="G123" t="n">
-        <v>0.895323698008206</v>
+        <v>1.207748633653243</v>
       </c>
       <c r="H123" t="n">
-        <v>2.898501243147004</v>
+        <v>4.293887623045799</v>
       </c>
       <c r="I123" t="n">
-        <v>0.8003599737173053</v>
+        <v>0.3652273646004955</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.3804583032071003</v>
+        <v>-0.03667056429866822</v>
       </c>
     </row>
     <row r="124">
@@ -4895,22 +4895,22 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.135346273771441</v>
+        <v>0.3397806426788743</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5291852424044134</v>
+        <v>0.4642816995820959</v>
       </c>
       <c r="G124" t="n">
-        <v>0.8221334361169547</v>
+        <v>1.086157969142406</v>
       </c>
       <c r="H124" t="n">
-        <v>1.275112964374736</v>
+        <v>1.118290951045263</v>
       </c>
       <c r="I124" t="n">
-        <v>0.8646537262285591</v>
+        <v>0.6602193573211258</v>
       </c>
       <c r="J124" t="n">
-        <v>0.3796131945772011</v>
+        <v>0.4557024320797616</v>
       </c>
     </row>
     <row r="125">
@@ -4931,22 +4931,22 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.1668460821016668</v>
+        <v>0.4736218811578896</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8987224265834176</v>
+        <v>0.763228533793912</v>
       </c>
       <c r="G125" t="n">
-        <v>1.016955952151019</v>
+        <v>1.28614165869692</v>
       </c>
       <c r="H125" t="n">
-        <v>2.029095906089613</v>
+        <v>2.316750408019919</v>
       </c>
       <c r="I125" t="n">
-        <v>0.8331539178983332</v>
+        <v>0.5263781188421102</v>
       </c>
       <c r="J125" t="n">
-        <v>0.06317737320137706</v>
+        <v>0.2186939713469944</v>
       </c>
     </row>
     <row r="126">
@@ -4967,22 +4967,22 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.1829964481090373</v>
+        <v>0.5977245485248102</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6399553401884536</v>
+        <v>0.6282641464848777</v>
       </c>
       <c r="G126" t="n">
-        <v>1.245443484423937</v>
+        <v>1.555379228936882</v>
       </c>
       <c r="H126" t="n">
-        <v>1.806355577415186</v>
+        <v>1.451903043075301</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8170035518909626</v>
+        <v>0.4022754514751898</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2665374831256987</v>
+        <v>0.2799369374635038</v>
       </c>
     </row>
     <row r="127">
@@ -5003,22 +5003,22 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.223426505999361</v>
+        <v>0.793703678866768</v>
       </c>
       <c r="F127" t="n">
-        <v>1.215079721019086</v>
+        <v>0.90267003457392</v>
       </c>
       <c r="G127" t="n">
-        <v>1.438076041437311</v>
+        <v>1.474649297199801</v>
       </c>
       <c r="H127" t="n">
-        <v>2.061185200847684</v>
+        <v>1.31766317563662</v>
       </c>
       <c r="I127" t="n">
-        <v>0.7765734940006391</v>
+        <v>0.2062963211332324</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.3582963382771787</v>
+        <v>-0.009064163794921143</v>
       </c>
     </row>
     <row r="128">
@@ -5039,22 +5039,22 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.1642258410876777</v>
+        <v>0.4905767109383574</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6148493006936321</v>
+        <v>0.6528125935842241</v>
       </c>
       <c r="G128" t="n">
-        <v>1.230707203575588</v>
+        <v>1.530345555906854</v>
       </c>
       <c r="H128" t="n">
-        <v>1.467441660284372</v>
+        <v>1.130860854284177</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8357741589123222</v>
+        <v>0.5094232890616424</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4430033450453461</v>
+        <v>0.4086121094575872</v>
       </c>
     </row>
     <row r="129">
@@ -5075,22 +5075,22 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.1902162650653586</v>
+        <v>0.6273349794433122</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8232947873003903</v>
+        <v>0.7279155915476743</v>
       </c>
       <c r="G129" t="n">
-        <v>1.304742243145612</v>
+        <v>1.520124694014512</v>
       </c>
       <c r="H129" t="n">
-        <v>1.778327479515747</v>
+        <v>1.300142357665366</v>
       </c>
       <c r="I129" t="n">
-        <v>0.8097837349346414</v>
+        <v>0.3726650205566878</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1170814966312887</v>
+        <v>0.2264949610420561</v>
       </c>
     </row>
     <row r="130">
@@ -5111,22 +5111,22 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.1683893714809958</v>
+        <v>0.5232477436515774</v>
       </c>
       <c r="F130" t="n">
-        <v>1.017364604851112</v>
+        <v>0.8814133830586262</v>
       </c>
       <c r="G130" t="n">
-        <v>0.98011691422876</v>
+        <v>1.336276670943736</v>
       </c>
       <c r="H130" t="n">
-        <v>2.667314681973882</v>
+        <v>2.04934590288165</v>
       </c>
       <c r="I130" t="n">
-        <v>0.831610628519004</v>
+        <v>0.4767522563484222</v>
       </c>
       <c r="J130" t="n">
-        <v>0.09590652343906791</v>
+        <v>0.2167212364406694</v>
       </c>
     </row>
     <row r="131">
@@ -5147,22 +5147,22 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.2056138510114467</v>
+        <v>0.7600494430624005</v>
       </c>
       <c r="F131" t="n">
-        <v>1.153478953344641</v>
+        <v>0.8793184448903351</v>
       </c>
       <c r="G131" t="n">
-        <v>1.515414533543369</v>
+        <v>1.682155652222274</v>
       </c>
       <c r="H131" t="n">
-        <v>5.83086773027102</v>
+        <v>2.895739049766545</v>
       </c>
       <c r="I131" t="n">
-        <v>0.7943861489885532</v>
+        <v>0.2399505569375991</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.2516845133635117</v>
+        <v>0.04581763144206341</v>
       </c>
     </row>
     <row r="132">
@@ -5183,22 +5183,22 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.1359633164054855</v>
+        <v>0.4420987903327973</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5153010409389557</v>
+        <v>0.4041204225615646</v>
       </c>
       <c r="G132" t="n">
-        <v>0.8428343524823558</v>
+        <v>1.230443859911944</v>
       </c>
       <c r="H132" t="n">
-        <v>1.238309243995505</v>
+        <v>0.9947257792909223</v>
       </c>
       <c r="I132" t="n">
-        <v>0.8640366835945145</v>
+        <v>0.5579012096672025</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2982841474563708</v>
+        <v>0.449685359976454</v>
       </c>
     </row>
     <row r="133">
@@ -5219,22 +5219,22 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.1699888462993093</v>
+        <v>0.5751319923489252</v>
       </c>
       <c r="F133" t="n">
-        <v>0.895381533044903</v>
+        <v>0.7216174168368421</v>
       </c>
       <c r="G133" t="n">
-        <v>1.112788600084828</v>
+        <v>1.416292061025985</v>
       </c>
       <c r="H133" t="n">
-        <v>3.245497218746804</v>
+        <v>1.979936910646372</v>
       </c>
       <c r="I133" t="n">
-        <v>0.8300111537006907</v>
+        <v>0.4248680076510747</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0475020525106421</v>
+        <v>0.2374080759530622</v>
       </c>
     </row>
     <row r="134">
@@ -5255,22 +5255,22 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.1727103357368509</v>
+        <v>0.5980432213551321</v>
       </c>
       <c r="F134" t="n">
-        <v>0.8014050310424338</v>
+        <v>0.7700908962649426</v>
       </c>
       <c r="G134" t="n">
-        <v>0.8155924737894892</v>
+        <v>1.202997607857558</v>
       </c>
       <c r="H134" t="n">
-        <v>4.527852652924506</v>
+        <v>3.155014345970773</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8272896642631491</v>
+        <v>0.4019567786448677</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2914068559987709</v>
+        <v>0.3190944550955699</v>
       </c>
     </row>
     <row r="135">
@@ -5291,22 +5291,22 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.212410157225421</v>
+        <v>0.8004761042626448</v>
       </c>
       <c r="F135" t="n">
-        <v>1.096145754280548</v>
+        <v>0.9266439783202106</v>
       </c>
       <c r="G135" t="n">
-        <v>2.328879003336279</v>
+        <v>2.929416615720023</v>
       </c>
       <c r="H135" t="n">
-        <v>1.439197790631677</v>
+        <v>1.132429583760491</v>
       </c>
       <c r="I135" t="n">
-        <v>0.7875898427745789</v>
+        <v>0.1995238957373546</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.09968358915539732</v>
+        <v>0.07036525756811185</v>
       </c>
     </row>
     <row r="136">
@@ -5327,22 +5327,22 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.1442878125375994</v>
+        <v>0.4586353587283427</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4918944878035256</v>
+        <v>0.5045197240822992</v>
       </c>
       <c r="G136" t="n">
-        <v>0.837484541791883</v>
+        <v>1.183401444382684</v>
       </c>
       <c r="H136" t="n">
-        <v>1.07441078809752</v>
+        <v>1.123123221654066</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8557121874624007</v>
+        <v>0.5413646412716577</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4174438325622639</v>
+        <v>0.4024916234159482</v>
       </c>
     </row>
     <row r="137">
@@ -5363,22 +5363,22 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.1764694351666238</v>
+        <v>0.6190515614487068</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7964817577088358</v>
+        <v>0.733751532889151</v>
       </c>
       <c r="G137" t="n">
-        <v>1.327318672972551</v>
+        <v>1.771938555986755</v>
       </c>
       <c r="H137" t="n">
-        <v>2.347153743884568</v>
+        <v>1.80352238379511</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8235305648333761</v>
+        <v>0.3809484385512928</v>
       </c>
       <c r="J137" t="n">
-        <v>0.2030556998018792</v>
+        <v>0.2639837786932097</v>
       </c>
     </row>
     <row r="138">
@@ -5399,22 +5399,22 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.1588718945015401</v>
+        <v>0.4736400024161354</v>
       </c>
       <c r="F138" t="n">
-        <v>1.049152963893361</v>
+        <v>0.9390757959950745</v>
       </c>
       <c r="G138" t="n">
-        <v>36.77518715404201</v>
+        <v>40.014125262864</v>
       </c>
       <c r="H138" t="n">
-        <v>1.657161682356846</v>
+        <v>1.359126978420783</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8411281054984597</v>
+        <v>0.5263599975838642</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1003646759547335</v>
+        <v>0.1947544475326233</v>
       </c>
     </row>
     <row r="139">
@@ -5435,22 +5435,22 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.2151429736604624</v>
+        <v>0.7319268698273325</v>
       </c>
       <c r="F139" t="n">
-        <v>1.208719295583941</v>
+        <v>0.8841612391908803</v>
       </c>
       <c r="G139" t="n">
-        <v>1.11969761426018</v>
+        <v>1.430490944256448</v>
       </c>
       <c r="H139" t="n">
-        <v>4.005287321073217</v>
+        <v>2.886314087486881</v>
       </c>
       <c r="I139" t="n">
-        <v>0.7848570263395376</v>
+        <v>0.2680731301726673</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.5787506709702139</v>
+        <v>-0.1548340087878743</v>
       </c>
     </row>
     <row r="140">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.1380579656217641</v>
+        <v>0.4047850596890746</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5669272353840815</v>
+        <v>0.533622546819844</v>
       </c>
       <c r="G140" t="n">
-        <v>0.8636548426985916</v>
+        <v>1.194281266332935</v>
       </c>
       <c r="H140" t="n">
-        <v>1.265314710020665</v>
+        <v>1.0769376284891</v>
       </c>
       <c r="I140" t="n">
-        <v>0.861942034378236</v>
+        <v>0.5952149403109259</v>
       </c>
       <c r="J140" t="n">
-        <v>0.4035235707062325</v>
+        <v>0.4385641552357074</v>
       </c>
     </row>
     <row r="141">
@@ -5507,22 +5507,22 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.1706909445945889</v>
+        <v>0.5367839773108475</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9415998316204611</v>
+        <v>0.7856198606685996</v>
       </c>
       <c r="G141" t="n">
-        <v>12.91951320366693</v>
+        <v>14.21296582448446</v>
       </c>
       <c r="H141" t="n">
-        <v>2.309254571150242</v>
+        <v>1.774126231465588</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8293090554054112</v>
+        <v>0.4632160226891526</v>
       </c>
       <c r="J141" t="n">
-        <v>-0.02495414143641609</v>
+        <v>0.1594948646601519</v>
       </c>
     </row>
   </sheetData>
